--- a/results/all_results_colors.xlsx
+++ b/results/all_results_colors.xlsx
@@ -1,87 +1,576 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omerh\PycharmProjects\Thesis\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B243B6-950F-46B9-9C34-54488BE944C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>raw</t>
-  </si>
-  <si>
-    <t>all_features</t>
-  </si>
-  <si>
-    <t>random_features</t>
-  </si>
-  <si>
-    <t>fisher</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>chi_square</t>
-  </si>
-  <si>
-    <t>mrmr</t>
-  </si>
-  <si>
-    <t>shirs_algo</t>
-  </si>
-  <si>
-    <t>kmeans_0.0</t>
-  </si>
-  <si>
-    <t>kmeans_0.2</t>
-  </si>
-  <si>
-    <t>kmeans_0.35</t>
-  </si>
-  <si>
-    <t>kmeans_0.5</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <color rgb="00F1F1F1"/>
+    </font>
+    <font>
+      <color rgb="00000000"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
+  <fills count="108">
+    <fill>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00006837"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B30D26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AB0626"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B91326"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B50F26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C82227"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CC2627"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A90426"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A50026"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBA05B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E14430"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AD0826"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A70226"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BB1526"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D42D27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CE2827"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C62027"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CA2427"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C41E27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B10B26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C21C27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BD1726"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FB9D59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E65036"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B71126"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D02927"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C01A27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AF0926"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BE1827"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E54E35"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D22B27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D83128"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E44C34"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ED5F3C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEE797"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B3DF72"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0063BC62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00219C52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00108647"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0060BA62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000B7D42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0005713C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00016A38"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFDBC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0087CB67"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0045AD5B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0006733D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00026C39"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDBB6C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ECF7A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0093D168"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0422F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FCA55D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFEBE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C3E67D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFAB6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B5DF74"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0096D268"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006EC064"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00279F53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0007753E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00036E3A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF8B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ABDB6D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000F8446"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000A7B41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0004703B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDC776"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAFDB8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0098D368"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EE613E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDBD6D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1F9AC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003FAA59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FECA79"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADDC6F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004BB05C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00138C4A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0048AE5C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000E8245"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0054B45F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001B9950"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00118848"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000C7F43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDAF62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEEC9F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F46D43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDBF6F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E9F6A1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A7D96B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0039A758"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F99355"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8FCB6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A0D669"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0051B35E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005AB760"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEEA9B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3EC87"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BBE278"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E75337"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDB365"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFBB8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEEFA3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F7814C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDC574"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C7E77F"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -93,43 +582,199 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="108">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="93" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="76" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="94" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="58" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="77" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="95" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="78" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="96" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="79" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="80" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="97" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="81" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="64" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="98" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="65" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="51" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="99" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="83" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="100" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="67" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="84" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="68" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="85" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="101" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="69" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="86" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="102" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="70" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="87" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="103" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="71" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="104" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="72" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="88" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="105" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="73" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="89" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="106" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="74" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="90" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="91" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="107" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="92" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -417,51 +1062,1479 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>all_features</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>random_features</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>fisher</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>relief</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>chi_square</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>mrmr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>shirs_algo</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>kmeans_0.0</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>kmeans_0.2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>kmeans_0.35</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>kmeans_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>adware_balanced 0.02 2</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0.3435</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.1713</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>0.1796</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>0.1702</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>0.1782</v>
+      </c>
+      <c r="I2" s="8" t="n">
+        <v>0.2008</v>
+      </c>
+      <c r="J2" s="9" t="n">
+        <v>0.1968</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <v>0.1968</v>
+      </c>
+      <c r="L2" s="10" t="n">
+        <v>0.2148</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>adware_balanced 0.05 2</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.3435</v>
+      </c>
+      <c r="C3" s="11" t="n">
+        <v>0.1792</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0.1769</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0.1816</v>
+      </c>
+      <c r="F3" s="11" t="n">
+        <v>0.1789</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>0.1863</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>0.1861</v>
+      </c>
+      <c r="I3" s="12" t="n">
+        <v>0.2474</v>
+      </c>
+      <c r="J3" s="13" t="n">
+        <v>0.2575</v>
+      </c>
+      <c r="K3" s="14" t="n">
+        <v>0.2363</v>
+      </c>
+      <c r="L3" s="15" t="n">
+        <v>0.2633</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>adware_balanced 0.1 2</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0.3435</v>
+      </c>
+      <c r="C4" s="16" t="n">
+        <v>0.1919</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>0.1932</v>
+      </c>
+      <c r="E4" s="17" t="n">
+        <v>0.1885</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.1852</v>
+      </c>
+      <c r="G4" s="18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0.1899</v>
+      </c>
+      <c r="I4" s="19" t="n">
+        <v>0.2917</v>
+      </c>
+      <c r="J4" s="20" t="n">
+        <v>0.2912</v>
+      </c>
+      <c r="K4" s="21" t="n">
+        <v>0.2939</v>
+      </c>
+      <c r="L4" s="22" t="n">
+        <v>0.2977</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>adware_balanced 0.2 2</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.3435</v>
+      </c>
+      <c r="C5" s="23" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="D5" s="24" t="n">
+        <v>0.2017</v>
+      </c>
+      <c r="E5" s="25" t="n">
+        <v>0.1931</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0.1918</v>
+      </c>
+      <c r="G5" s="26" t="n">
+        <v>0.2037</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>0.1993</v>
+      </c>
+      <c r="I5" s="27" t="n">
+        <v>0.3137</v>
+      </c>
+      <c r="J5" s="28" t="n">
+        <v>0.3016</v>
+      </c>
+      <c r="K5" s="29" t="n">
+        <v>0.3181</v>
+      </c>
+      <c r="L5" s="30" t="n">
+        <v>0.3172</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>adware_balanced 0.3 2</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0.3435</v>
+      </c>
+      <c r="C6" s="31" t="n">
+        <v>0.2023</v>
+      </c>
+      <c r="D6" s="24" t="n">
+        <v>0.2007</v>
+      </c>
+      <c r="E6" s="24" t="n">
+        <v>0.2011</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.1911</v>
+      </c>
+      <c r="G6" s="23" t="n">
+        <v>0.1961</v>
+      </c>
+      <c r="H6" s="32" t="n">
+        <v>0.1966</v>
+      </c>
+      <c r="I6" s="33" t="n">
+        <v>0.3267</v>
+      </c>
+      <c r="J6" s="34" t="n">
+        <v>0.3111</v>
+      </c>
+      <c r="K6" s="35" t="n">
+        <v>0.3255</v>
+      </c>
+      <c r="L6" s="29" t="n">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>adware_balanced 0.5 2</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0.3435</v>
+      </c>
+      <c r="C7" s="26" t="n">
+        <v>0.2103</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.1984</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.2065</v>
+      </c>
+      <c r="F7" s="36" t="n">
+        <v>0.2007</v>
+      </c>
+      <c r="G7" s="32" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="H7" s="32" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="I7" s="37" t="n">
+        <v>0.3342</v>
+      </c>
+      <c r="J7" s="35" t="n">
+        <v>0.3262</v>
+      </c>
+      <c r="K7" s="38" t="n">
+        <v>0.3325</v>
+      </c>
+      <c r="L7" s="30" t="n">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>digits 0.02 2</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="C8" s="23" t="n">
+        <v>0.2565</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>0.2395</v>
+      </c>
+      <c r="E8" s="17" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.2305</v>
+      </c>
+      <c r="G8" s="24" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="I8" s="39" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J8" s="34" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="K8" s="40" t="n">
+        <v>0.8655</v>
+      </c>
+      <c r="L8" s="41" t="n">
+        <v>0.847</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>digits 0.05 2</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="C9" s="11" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0.2695</v>
+      </c>
+      <c r="G9" s="42" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="I9" s="43" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="J9" s="37" t="n">
+        <v>0.9405</v>
+      </c>
+      <c r="K9" s="44" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="L9" s="37" t="n">
+        <v>0.9415</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>digits 0.1 2</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="C10" s="25" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>0.2665</v>
+      </c>
+      <c r="E10" s="25" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0.2715</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H10" s="25" t="n">
+        <v>0.2735</v>
+      </c>
+      <c r="I10" s="45" t="n">
+        <v>0.9725</v>
+      </c>
+      <c r="J10" s="46" t="n">
+        <v>0.9665</v>
+      </c>
+      <c r="K10" s="45" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="L10" s="47" t="n">
+        <v>0.9685</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>digits 0.2 2</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="C11" s="25" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="E11" s="25" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="I11" s="48" t="n">
+        <v>0.9815</v>
+      </c>
+      <c r="J11" s="49" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="K11" s="49" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="L11" s="50" t="n">
+        <v>0.979</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>digits 0.3 2</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>0.2745</v>
+      </c>
+      <c r="D12" s="11" t="n">
+        <v>0.2805</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>0.2755</v>
+      </c>
+      <c r="H12" s="25" t="n">
+        <v>0.2795</v>
+      </c>
+      <c r="I12" s="48" t="n">
+        <v>0.9835</v>
+      </c>
+      <c r="J12" s="49" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="K12" s="49" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="L12" s="49" t="n">
+        <v>0.9785</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>digits 0.5 2</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="C13" s="51" t="n">
+        <v>0.2775</v>
+      </c>
+      <c r="D13" s="52" t="n">
+        <v>0.2735</v>
+      </c>
+      <c r="E13" s="51" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="F13" s="51" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G13" s="52" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="H13" s="51" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>0.9875</v>
+      </c>
+      <c r="J13" s="50" t="n">
+        <v>0.9795</v>
+      </c>
+      <c r="K13" s="48" t="n">
+        <v>0.9815</v>
+      </c>
+      <c r="L13" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>gene_data 0.02 2</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="C14" s="53" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F14" s="54" t="n">
+        <v>0.43375</v>
+      </c>
+      <c r="G14" s="53" t="n">
+        <v>0.42375</v>
+      </c>
+      <c r="H14" s="55" t="n">
+        <v>0.43125</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="J14" s="50" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K14" s="49" t="n">
+        <v>0.98875</v>
+      </c>
+      <c r="L14" s="50" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>gene_data 0.05 2</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="C15" s="36" t="n">
+        <v>0.4325</v>
+      </c>
+      <c r="D15" s="32" t="n">
+        <v>0.44375</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F15" s="25" t="n">
+        <v>0.42625</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.42125</v>
+      </c>
+      <c r="H15" s="36" t="n">
+        <v>0.43125</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>0.99625</v>
+      </c>
+      <c r="J15" s="48" t="n">
+        <v>0.99375</v>
+      </c>
+      <c r="K15" s="48" t="n">
+        <v>0.99375</v>
+      </c>
+      <c r="L15" s="48" t="n">
+        <v>0.99375</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>gene_data 0.1 2</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>0.42625</v>
+      </c>
+      <c r="D16" s="11" t="n">
+        <v>0.4325</v>
+      </c>
+      <c r="E16" s="32" t="n">
+        <v>0.44625</v>
+      </c>
+      <c r="F16" s="25" t="n">
+        <v>0.43125</v>
+      </c>
+      <c r="G16" s="25" t="n">
+        <v>0.43125</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>0.99625</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>0.99625</v>
+      </c>
+      <c r="K16" s="48" t="n">
+        <v>0.99375</v>
+      </c>
+      <c r="L16" s="48" t="n">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>gene_data 0.2 2</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>0.4225</v>
+      </c>
+      <c r="D17" s="36" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E17" s="36" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F17" s="11" t="n">
+        <v>0.4275</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>0.41875</v>
+      </c>
+      <c r="H17" s="11" t="n">
+        <v>0.4275</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>0.99625</v>
+      </c>
+      <c r="J17" s="48" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>0.99625</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>gene_data 0.3 2</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0.42125</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0.42125</v>
+      </c>
+      <c r="E18" s="25" t="n">
+        <v>0.4275</v>
+      </c>
+      <c r="F18" s="42" t="n">
+        <v>0.43625</v>
+      </c>
+      <c r="G18" s="36" t="n">
+        <v>0.4325</v>
+      </c>
+      <c r="H18" s="36" t="n">
+        <v>0.43125</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>0.99625</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>0.99625</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>0.99625</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>gene_data 0.5 2</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>0.43375</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E19" s="17" t="n">
+        <v>0.42875</v>
+      </c>
+      <c r="F19" s="17" t="n">
+        <v>0.42875</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.41625</v>
+      </c>
+      <c r="H19" s="25" t="n">
+        <v>0.4225</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>0.99625</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>isolet 0.02 2</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>0.941885824</v>
+      </c>
+      <c r="C20" s="56" t="n">
+        <v>0.11289288</v>
+      </c>
+      <c r="D20" s="57" t="n">
+        <v>0.135343169</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.07479153299999999</v>
+      </c>
+      <c r="F20" s="36" t="n">
+        <v>0.09057087900000001</v>
+      </c>
+      <c r="G20" s="58" t="n">
+        <v>0.14599102</v>
+      </c>
+      <c r="H20" s="17" t="n">
+        <v>0.094291212</v>
+      </c>
+      <c r="I20" s="59" t="n">
+        <v>0.501988454</v>
+      </c>
+      <c r="J20" s="60" t="n">
+        <v>0.490570879</v>
+      </c>
+      <c r="K20" s="60" t="n">
+        <v>0.491084028</v>
+      </c>
+      <c r="L20" s="61" t="n">
+        <v>0.448492623</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>isolet 0.05 2</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>0.941885824</v>
+      </c>
+      <c r="C21" s="62" t="n">
+        <v>0.176908275</v>
+      </c>
+      <c r="D21" s="62" t="n">
+        <v>0.176523412</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.096215523</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>0.121359846</v>
+      </c>
+      <c r="G21" s="63" t="n">
+        <v>0.18396408</v>
+      </c>
+      <c r="H21" s="16" t="n">
+        <v>0.130853111</v>
+      </c>
+      <c r="I21" s="64" t="n">
+        <v>0.728030789</v>
+      </c>
+      <c r="J21" s="65" t="n">
+        <v>0.67979474</v>
+      </c>
+      <c r="K21" s="21" t="n">
+        <v>0.675817832</v>
+      </c>
+      <c r="L21" s="66" t="n">
+        <v>0.559461193</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>isolet 0.1 2</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>0.941885824</v>
+      </c>
+      <c r="C22" s="58" t="n">
+        <v>0.199743425</v>
+      </c>
+      <c r="D22" s="67" t="n">
+        <v>0.201411161</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.130083387</v>
+      </c>
+      <c r="F22" s="57" t="n">
+        <v>0.184348942</v>
+      </c>
+      <c r="G22" s="18" t="n">
+        <v>0.204233483</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>0.152405388</v>
+      </c>
+      <c r="I22" s="68" t="n">
+        <v>0.8128287360000001</v>
+      </c>
+      <c r="J22" s="68" t="n">
+        <v>0.813341886</v>
+      </c>
+      <c r="K22" s="69" t="n">
+        <v>0.797690827</v>
+      </c>
+      <c r="L22" s="70" t="n">
+        <v>0.627838358</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>isolet 0.2 2</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>0.941885824</v>
+      </c>
+      <c r="C23" s="57" t="n">
+        <v>0.213341886</v>
+      </c>
+      <c r="D23" s="57" t="n">
+        <v>0.212957024</v>
+      </c>
+      <c r="E23" s="71" t="n">
+        <v>0.201154586</v>
+      </c>
+      <c r="F23" s="72" t="n">
+        <v>0.207440667</v>
+      </c>
+      <c r="G23" s="57" t="n">
+        <v>0.213341886</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.160744067</v>
+      </c>
+      <c r="I23" s="43" t="n">
+        <v>0.9069916609999999</v>
+      </c>
+      <c r="J23" s="73" t="n">
+        <v>0.8941629250000001</v>
+      </c>
+      <c r="K23" s="74" t="n">
+        <v>0.860166774</v>
+      </c>
+      <c r="L23" s="75" t="n">
+        <v>0.674150096</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>isolet 0.3 2</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>0.941885824</v>
+      </c>
+      <c r="C24" s="76" t="n">
+        <v>0.216933932</v>
+      </c>
+      <c r="D24" s="31" t="n">
+        <v>0.213855035</v>
+      </c>
+      <c r="E24" s="24" t="n">
+        <v>0.20923669</v>
+      </c>
+      <c r="F24" s="24" t="n">
+        <v>0.210262989</v>
+      </c>
+      <c r="G24" s="76" t="n">
+        <v>0.216933932</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.158434894</v>
+      </c>
+      <c r="I24" s="47" t="n">
+        <v>0.92264272</v>
+      </c>
+      <c r="J24" s="77" t="n">
+        <v>0.911096857</v>
+      </c>
+      <c r="K24" s="78" t="n">
+        <v>0.887363695</v>
+      </c>
+      <c r="L24" s="20" t="n">
+        <v>0.682873637</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>isolet 0.5 2</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>0.941885824</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.214239897</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.213726748</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>0.217062219</v>
+      </c>
+      <c r="F25" s="4" t="n">
+        <v>0.216805645</v>
+      </c>
+      <c r="G25" s="25" t="n">
+        <v>0.219756254</v>
+      </c>
+      <c r="H25" s="4" t="n">
+        <v>0.218216806</v>
+      </c>
+      <c r="I25" s="50" t="n">
+        <v>0.934060295</v>
+      </c>
+      <c r="J25" s="79" t="n">
+        <v>0.930468249</v>
+      </c>
+      <c r="K25" s="80" t="n">
+        <v>0.904939064</v>
+      </c>
+      <c r="L25" s="81" t="n">
+        <v>0.682873637</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>ml_multiclass_classification_data 0.05 2</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="C26" s="16" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="D26" s="23" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="E26" s="17" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="F26" s="4" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="G26" s="36" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="I26" s="71" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="J26" s="17" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="K26" s="18" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="L26" s="7" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>ml_multiclass_classification_data 0.1 2</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="C27" s="24" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="D27" s="16" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="F27" s="11" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="G27" s="4" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="H27" s="25" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="I27" s="67" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="J27" s="63" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="K27" s="62" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="L27" s="82" t="n">
+        <v>0.213</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>ml_multiclass_classification_data 0.2 2</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="D28" s="31" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F28" s="16" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="G28" s="56" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I28" s="83" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="J28" s="84" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="K28" s="85" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="L28" s="86" t="n">
+        <v>0.285</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>ml_multiclass_classification_data 0.3 2</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="D29" s="31" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="E29" s="16" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="G29" s="42" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="H29" s="42" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="I29" s="66" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="J29" s="87" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="K29" s="88" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="L29" s="89" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>ml_multiclass_classification_data 0.5 2</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="C30" s="42" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="E30" s="25" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="G30" s="26" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="H30" s="4" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="I30" s="90" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="J30" s="91" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="K30" s="90" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="L30" s="92" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>otto_balanced 0.02 2</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="C31" s="11" t="n">
+        <v>0.1183</v>
+      </c>
+      <c r="D31" s="36" t="n">
+        <v>0.1203</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.1099</v>
+      </c>
+      <c r="F31" s="23" t="n">
+        <v>0.1312</v>
+      </c>
+      <c r="G31" s="23" t="n">
+        <v>0.1325</v>
+      </c>
+      <c r="H31" s="4" t="n">
+        <v>0.1143</v>
+      </c>
+      <c r="I31" s="71" t="n">
+        <v>0.1453</v>
+      </c>
+      <c r="J31" s="57" t="n">
+        <v>0.1535</v>
+      </c>
+      <c r="K31" s="26" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="L31" s="5" t="n">
+        <v>0.1471</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>otto_balanced 0.05 2</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="C32" s="23" t="n">
+        <v>0.1351</v>
+      </c>
+      <c r="D32" s="32" t="n">
+        <v>0.1383</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.1136</v>
+      </c>
+      <c r="F32" s="57" t="n">
+        <v>0.1587</v>
+      </c>
+      <c r="G32" s="76" t="n">
+        <v>0.1619</v>
+      </c>
+      <c r="H32" s="24" t="n">
+        <v>0.1554</v>
+      </c>
+      <c r="I32" s="93" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="J32" s="94" t="n">
+        <v>0.2321</v>
+      </c>
+      <c r="K32" s="95" t="n">
+        <v>0.2451</v>
+      </c>
+      <c r="L32" s="96" t="n">
+        <v>0.264</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>otto_balanced 0.1 2</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="C33" s="56" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="D33" s="16" t="n">
+        <v>0.1621</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="F33" s="31" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="G33" s="58" t="n">
+        <v>0.1903</v>
+      </c>
+      <c r="H33" s="5" t="n">
+        <v>0.1717</v>
+      </c>
+      <c r="I33" s="97" t="n">
+        <v>0.3166</v>
+      </c>
+      <c r="J33" s="98" t="n">
+        <v>0.3441</v>
+      </c>
+      <c r="K33" s="99" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="L33" s="100" t="n">
+        <v>0.3548</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>otto_balanced 0.2 2</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="C34" s="56" t="n">
+        <v>0.1849</v>
+      </c>
+      <c r="D34" s="42" t="n">
+        <v>0.1732</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>0.1579</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>0.1928</v>
+      </c>
+      <c r="G34" s="62" t="n">
+        <v>0.2169</v>
+      </c>
+      <c r="H34" s="24" t="n">
+        <v>0.1968</v>
+      </c>
+      <c r="I34" s="101" t="n">
+        <v>0.4594</v>
+      </c>
+      <c r="J34" s="102" t="n">
+        <v>0.4828</v>
+      </c>
+      <c r="K34" s="103" t="n">
+        <v>0.4963</v>
+      </c>
+      <c r="L34" s="101" t="n">
+        <v>0.4593</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>otto_balanced 0.3 2</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="C35" s="72" t="n">
+        <v>0.2124</v>
+      </c>
+      <c r="D35" s="36" t="n">
+        <v>0.1882</v>
+      </c>
+      <c r="E35" s="6" t="n">
+        <v>0.1775</v>
+      </c>
+      <c r="F35" s="76" t="n">
+        <v>0.2222</v>
+      </c>
+      <c r="G35" s="76" t="n">
+        <v>0.2224</v>
+      </c>
+      <c r="H35" s="5" t="n">
+        <v>0.2098</v>
+      </c>
+      <c r="I35" s="81" t="n">
+        <v>0.5534</v>
+      </c>
+      <c r="J35" s="20" t="n">
+        <v>0.5693</v>
+      </c>
+      <c r="K35" s="104" t="n">
+        <v>0.5858</v>
+      </c>
+      <c r="L35" s="105" t="n">
+        <v>0.5499000000000001</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>otto_balanced 0.5 2</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="C36" s="42" t="n">
+        <v>0.2251</v>
+      </c>
+      <c r="D36" s="42" t="n">
+        <v>0.2252</v>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>0.2114</v>
+      </c>
+      <c r="F36" s="7" t="n">
+        <v>0.2386</v>
+      </c>
+      <c r="G36" s="7" t="n">
+        <v>0.2391</v>
+      </c>
+      <c r="H36" s="42" t="n">
+        <v>0.2248</v>
+      </c>
+      <c r="I36" s="39" t="n">
+        <v>0.6567</v>
+      </c>
+      <c r="J36" s="106" t="n">
+        <v>0.6819</v>
+      </c>
+      <c r="K36" s="107" t="n">
+        <v>0.6852</v>
+      </c>
+      <c r="L36" s="70" t="n">
+        <v>0.5499000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/results/all_results_colors.xlsx
+++ b/results/all_results_colors.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00000000"/>
     </font>
   </fonts>
-  <fills count="112">
+  <fills count="151">
     <fill>
       <patternFill/>
     </fill>
@@ -49,22 +49,422 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00A50026"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FED884"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0084CA66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00138C4A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000F8446"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00097940"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008ECF67"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0005713C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00036E3A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00016A38"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E14430"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AD0826"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A70226"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00B30D26"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00DCF08F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0048AE5C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0017934E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00026C39"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C01A27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B71126"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FA9656"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF3AC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0051B35E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00AB0626"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00B50F26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BB1526"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C21C27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B10B26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F47044"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F67F4B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEEDA1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0078C565"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0069BE63"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0045AD5B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0063BC62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0016914D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00108647"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0004703B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E65036"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF7B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008CCD67"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0006733D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CE2827"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F7814C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8FCB6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A2D76A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00B91326"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B50F26"/>
+        <fgColor rgb="00FCAA5F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEE491"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F5FBB2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006EC064"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0039A758"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000B7D42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BD1726"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A90426"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AF0926"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F57245"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F88C51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEE28F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001E9A51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000D8044"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BE1827"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D02927"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDB163"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEEA9B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A7D96B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D42D27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DB382B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEE593"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B1DE71"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000E8245"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A9DA6C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0018954F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E54E35"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F99355"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FED27F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006BBF64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00128A49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000A7B41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CC2627"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EB5A3A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDAD60"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0F295"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C62027"/>
       </patternFill>
     </fill>
     <fill>
@@ -74,17 +474,52 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CC2627"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A90426"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A50026"/>
+        <fgColor rgb="00CA2427"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEEB9D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AFDD70"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007DC765"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0033A456"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0007753E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DFF293"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8864F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFEBE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0054B45F"/>
       </patternFill>
     </fill>
     <fill>
@@ -94,82 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E14430"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AD0826"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A70226"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BB1526"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D42D27"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CE2827"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C62027"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CA2427"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C01A27"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B71126"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FA9656"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF3AC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0051B35E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C21C27"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B10B26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BD1726"/>
+        <fgColor rgb="00E44C34"/>
       </patternFill>
     </fill>
     <fill>
@@ -179,77 +539,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FB9D59"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E65036"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D02927"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F7814C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F8FCB6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A2D76A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AF0926"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BE1827"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FDB163"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FEEA9B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A7D96B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E54E35"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EB5A3A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FDAD60"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E0F295"/>
+        <fgColor rgb="00B9E176"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00249D53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0066BD63"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFAB6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBA35C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1F9AC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0093D168"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0422F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FCA55D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C3E67D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0060BA62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EE613E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF1A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BDE379"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A0D669"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0075C465"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002DA155"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0070C164"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF5AE"/>
       </patternFill>
     </fill>
     <fill>
@@ -259,32 +639,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D83128"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F8864F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFEBE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0054B45F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E44C34"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ED5F3C"/>
+        <fgColor rgb="00FEFFBE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0098D368"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDBD6D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B5DF74"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003FAA59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDB768"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B3DF72"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002AA054"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00148E4B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004BB05C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0057B65F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001B9950"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00118848"/>
       </patternFill>
     </fill>
     <fill>
@@ -294,231 +709,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B3DF72"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0063BC62"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00219C52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00108647"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0060BA62"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000B7D42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0005713C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00016A38"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFDBC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0087CB67"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0045AD5B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0006733D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00026C39"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBA35C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F1F9AC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0093D168"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E0422F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FCA55D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C3E67D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFAB6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B5DF74"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="0096D268"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006EC064"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00279F53"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0007753E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00036E3A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF8B4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ABDB6D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000F8446"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000A7B41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0004703B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FEFFBE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0098D368"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EE613E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FDBD6D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003FAA59"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FECA79"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ADDC6F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004BB05C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00138C4A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0048AE5C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000E8245"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001B9950"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00118848"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000C7F43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00F46D43"/>
       </patternFill>
     </fill>
@@ -534,17 +729,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0039A758"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F99355"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A0D669"/>
+        <fgColor rgb="00FFFBB8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A5D86A"/>
       </patternFill>
     </fill>
     <fill>
@@ -554,42 +744,47 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ECF7A6"/>
+        <fgColor rgb="005DB961"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F4FAB0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D7EE8A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BBE278"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FA9857"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF6B0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDC574"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C7E77F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00D3EC87"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BBE278"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FA9857"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF6B0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FEEDA1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FDC574"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C7E77F"/>
       </patternFill>
     </fill>
   </fills>
@@ -611,121 +806,160 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="69" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="88" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="112" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="105" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="51" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="89" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="113" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="126" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="139" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="71" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="90" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="101" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="114" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="127" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="140" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="72" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="91" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="115" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="97" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="141" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="92" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="102" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="116" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="128" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="73" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="80" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="117" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="129" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="74" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="93" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="103" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="118" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="130" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="142" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="98" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="99" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="101" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="51" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="71" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="88" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="72" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="89" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="102" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="73" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="90" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="74" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="91" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="92" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="103" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="93" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="58" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="77" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="64" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="77" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="94" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="104" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="119" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="78" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="143" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="61" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="79" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="104" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="131" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="144" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="62" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="105" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="80" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="94" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="106" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="132" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="145" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="81" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="133" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="124" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="110" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="64" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="87" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="120" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="66" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="83" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="95" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="96" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="70" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="65" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="107" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="146" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="47" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="66" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="83" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="108" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="67" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="84" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="96" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="106" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="121" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="134" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="147" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="68" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="85" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="107" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="122" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="135" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="86" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="100" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="108" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="136" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="109" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="68" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="85" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="97" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="69" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="86" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="98" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="110" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="99" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="111" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="87" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="100" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="123" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="137" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="148" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="138" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="149" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="111" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="125" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="150" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1168,37 +1402,37 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.3435</v>
+        <v>0.344</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.175</v>
+        <v>0.164</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.1713</v>
+        <v>0.201</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.1796</v>
+        <v>0.217</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.1702</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="H2" s="7" t="n">
-        <v>0.1782</v>
-      </c>
-      <c r="I2" s="8" t="n">
-        <v>0.2008</v>
+        <v>0.181</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.201</v>
       </c>
       <c r="J2" s="9" t="n">
-        <v>0.1968</v>
+        <v>0.197</v>
       </c>
       <c r="K2" s="9" t="n">
-        <v>0.1968</v>
+        <v>0.197</v>
       </c>
       <c r="L2" s="10" t="n">
-        <v>0.2148</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="3">
@@ -1208,37 +1442,37 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.3435</v>
+        <v>0.344</v>
       </c>
       <c r="C3" s="11" t="n">
-        <v>0.1792</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>0.1769</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>0.1816</v>
-      </c>
-      <c r="F3" s="11" t="n">
-        <v>0.1789</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>0.1863</v>
-      </c>
-      <c r="H3" s="5" t="n">
-        <v>0.1861</v>
-      </c>
-      <c r="I3" s="12" t="n">
-        <v>0.2474</v>
-      </c>
-      <c r="J3" s="13" t="n">
-        <v>0.2575</v>
-      </c>
-      <c r="K3" s="14" t="n">
-        <v>0.2363</v>
-      </c>
-      <c r="L3" s="15" t="n">
-        <v>0.2633</v>
+        <v>0.247</v>
+      </c>
+      <c r="D3" s="12" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="E3" s="13" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="F3" s="14" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="G3" s="15" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="I3" s="11" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="J3" s="16" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="K3" s="17" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="L3" s="18" t="n">
+        <v>0.263</v>
       </c>
     </row>
     <row r="4">
@@ -1248,37 +1482,37 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.3435</v>
-      </c>
-      <c r="C4" s="16" t="n">
-        <v>0.1919</v>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>0.1932</v>
-      </c>
-      <c r="E4" s="17" t="n">
-        <v>0.1885</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>0.1852</v>
-      </c>
-      <c r="G4" s="18" t="n">
-        <v>0.2</v>
+        <v>0.344</v>
+      </c>
+      <c r="C4" s="19" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="D4" s="20" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="E4" s="21" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="F4" s="22" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="G4" s="23" t="n">
+        <v>0.295</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>0.1899</v>
-      </c>
-      <c r="I4" s="19" t="n">
-        <v>0.2917</v>
-      </c>
-      <c r="J4" s="20" t="n">
-        <v>0.2912</v>
-      </c>
-      <c r="K4" s="21" t="n">
-        <v>0.2939</v>
-      </c>
-      <c r="L4" s="22" t="n">
-        <v>0.2977</v>
+        <v>0.19</v>
+      </c>
+      <c r="I4" s="24" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="J4" s="25" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="K4" s="26" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="L4" s="27" t="n">
+        <v>0.298</v>
       </c>
     </row>
     <row r="5">
@@ -1288,37 +1522,37 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.3435</v>
-      </c>
-      <c r="C5" s="23" t="n">
-        <v>0.197</v>
-      </c>
-      <c r="D5" s="24" t="n">
-        <v>0.2017</v>
-      </c>
-      <c r="E5" s="25" t="n">
-        <v>0.1931</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>0.1918</v>
-      </c>
-      <c r="G5" s="26" t="n">
-        <v>0.2037</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>0.1993</v>
-      </c>
-      <c r="I5" s="27" t="n">
-        <v>0.3137</v>
-      </c>
-      <c r="J5" s="28" t="n">
-        <v>0.3016</v>
-      </c>
-      <c r="K5" s="29" t="n">
-        <v>0.3181</v>
-      </c>
-      <c r="L5" s="30" t="n">
-        <v>0.3172</v>
+        <v>0.344</v>
+      </c>
+      <c r="C5" s="28" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="D5" s="29" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="E5" s="30" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="F5" s="31" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="G5" s="32" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="I5" s="33" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="J5" s="34" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="K5" s="35" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="L5" s="36" t="n">
+        <v>0.317</v>
       </c>
     </row>
     <row r="6">
@@ -1328,36 +1562,36 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.3435</v>
-      </c>
-      <c r="C6" s="31" t="n">
-        <v>0.2023</v>
-      </c>
-      <c r="D6" s="24" t="n">
-        <v>0.2007</v>
-      </c>
-      <c r="E6" s="24" t="n">
-        <v>0.2011</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>0.1911</v>
-      </c>
-      <c r="G6" s="23" t="n">
-        <v>0.1961</v>
-      </c>
-      <c r="H6" s="32" t="n">
-        <v>0.1966</v>
-      </c>
-      <c r="I6" s="33" t="n">
-        <v>0.3267</v>
-      </c>
-      <c r="J6" s="34" t="n">
-        <v>0.3111</v>
-      </c>
-      <c r="K6" s="35" t="n">
-        <v>0.3255</v>
-      </c>
-      <c r="L6" s="29" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="C6" s="37" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="D6" s="33" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="E6" s="38" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="F6" s="33" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="G6" s="39" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="I6" s="40" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="J6" s="41" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="K6" s="42" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="L6" s="35" t="n">
         <v>0.318</v>
       </c>
     </row>
@@ -1368,36 +1602,36 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.3435</v>
-      </c>
-      <c r="C7" s="26" t="n">
-        <v>0.2103</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>0.1984</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>0.2065</v>
-      </c>
-      <c r="F7" s="36" t="n">
-        <v>0.2007</v>
-      </c>
-      <c r="G7" s="32" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="C7" s="43" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="D7" s="44" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="F7" s="45" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="G7" s="45" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="H7" s="3" t="n">
         <v>0.204</v>
       </c>
-      <c r="H7" s="32" t="n">
-        <v>0.204</v>
-      </c>
-      <c r="I7" s="37" t="n">
-        <v>0.3342</v>
-      </c>
-      <c r="J7" s="35" t="n">
-        <v>0.3262</v>
-      </c>
-      <c r="K7" s="38" t="n">
-        <v>0.3325</v>
-      </c>
-      <c r="L7" s="30" t="n">
+      <c r="I7" s="46" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="J7" s="47" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="K7" s="48" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="L7" s="36" t="n">
         <v>0.318</v>
       </c>
     </row>
@@ -1410,34 +1644,34 @@
       <c r="B8" s="2" t="n">
         <v>0.987</v>
       </c>
-      <c r="C8" s="23" t="n">
-        <v>0.2565</v>
-      </c>
-      <c r="D8" s="11" t="n">
-        <v>0.2395</v>
-      </c>
-      <c r="E8" s="17" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>0.2305</v>
-      </c>
-      <c r="G8" s="24" t="n">
-        <v>0.279</v>
+      <c r="C8" s="49" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="D8" s="50" t="n">
+        <v>0.843</v>
+      </c>
+      <c r="E8" s="33" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="F8" s="51" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G8" s="52" t="n">
+        <v>0.964</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="I8" s="39" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="I8" s="53" t="n">
         <v>0.84</v>
       </c>
-      <c r="J8" s="34" t="n">
+      <c r="J8" s="54" t="n">
         <v>0.826</v>
       </c>
-      <c r="K8" s="40" t="n">
-        <v>0.8655</v>
-      </c>
-      <c r="L8" s="41" t="n">
+      <c r="K8" s="55" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="L8" s="56" t="n">
         <v>0.847</v>
       </c>
     </row>
@@ -1450,35 +1684,35 @@
       <c r="B9" s="2" t="n">
         <v>0.987</v>
       </c>
-      <c r="C9" s="11" t="n">
-        <v>0.274</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>0.264</v>
-      </c>
-      <c r="E9" s="11" t="n">
-        <v>0.274</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.2695</v>
-      </c>
-      <c r="G9" s="42" t="n">
-        <v>0.282</v>
-      </c>
-      <c r="H9" s="4" t="n">
+      <c r="C9" s="43" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D9" s="57" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="E9" s="58" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="F9" s="59" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="G9" s="60" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H9" s="3" t="n">
         <v>0.267</v>
       </c>
-      <c r="I9" s="43" t="n">
+      <c r="I9" s="58" t="n">
         <v>0.954</v>
       </c>
-      <c r="J9" s="37" t="n">
-        <v>0.9405</v>
-      </c>
-      <c r="K9" s="44" t="n">
+      <c r="J9" s="61" t="n">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="K9" s="45" t="n">
         <v>0.945</v>
       </c>
-      <c r="L9" s="37" t="n">
-        <v>0.9415</v>
+      <c r="L9" s="61" t="n">
+        <v>0.9409999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1490,35 +1724,35 @@
       <c r="B10" s="2" t="n">
         <v>0.987</v>
       </c>
-      <c r="C10" s="25" t="n">
+      <c r="C10" s="62" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="D10" s="61" t="n">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="E10" s="63" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="F10" s="58" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="G10" s="64" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="H10" s="3" t="n">
         <v>0.273</v>
       </c>
-      <c r="D10" s="6" t="n">
-        <v>0.2665</v>
-      </c>
-      <c r="E10" s="25" t="n">
-        <v>0.274</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.2715</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="H10" s="25" t="n">
-        <v>0.2735</v>
-      </c>
-      <c r="I10" s="45" t="n">
-        <v>0.9725</v>
-      </c>
-      <c r="J10" s="46" t="n">
-        <v>0.9665</v>
-      </c>
-      <c r="K10" s="45" t="n">
+      <c r="I10" s="62" t="n">
         <v>0.972</v>
       </c>
-      <c r="L10" s="47" t="n">
-        <v>0.9685</v>
+      <c r="J10" s="52" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="K10" s="62" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="L10" s="65" t="n">
+        <v>0.968</v>
       </c>
     </row>
     <row r="11">
@@ -1530,34 +1764,34 @@
       <c r="B11" s="2" t="n">
         <v>0.987</v>
       </c>
-      <c r="C11" s="25" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="D11" s="6" t="n">
+      <c r="C11" s="66" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="D11" s="63" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="E11" s="60" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="F11" s="60" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="H11" s="3" t="n">
         <v>0.273</v>
       </c>
-      <c r="E11" s="25" t="n">
-        <v>0.281</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>0.276</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>0.274</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>0.273</v>
-      </c>
-      <c r="I11" s="48" t="n">
-        <v>0.9815</v>
-      </c>
-      <c r="J11" s="49" t="n">
-        <v>0.9775</v>
-      </c>
-      <c r="K11" s="49" t="n">
-        <v>0.9775</v>
-      </c>
-      <c r="L11" s="50" t="n">
+      <c r="I11" s="60" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="J11" s="66" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="K11" s="66" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="L11" s="66" t="n">
         <v>0.979</v>
       </c>
     </row>
@@ -1570,35 +1804,35 @@
       <c r="B12" s="2" t="n">
         <v>0.987</v>
       </c>
-      <c r="C12" s="6" t="n">
-        <v>0.2745</v>
-      </c>
-      <c r="D12" s="11" t="n">
-        <v>0.2805</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>0.275</v>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>0.2755</v>
-      </c>
-      <c r="H12" s="25" t="n">
-        <v>0.2795</v>
-      </c>
-      <c r="I12" s="48" t="n">
-        <v>0.9835</v>
-      </c>
-      <c r="J12" s="49" t="n">
+      <c r="C12" s="64" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="D12" s="63" t="n">
         <v>0.976</v>
       </c>
-      <c r="K12" s="49" t="n">
-        <v>0.9775</v>
-      </c>
-      <c r="L12" s="49" t="n">
-        <v>0.9785</v>
+      <c r="E12" s="64" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="F12" s="64" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="I12" s="64" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="J12" s="63" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="K12" s="66" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="L12" s="66" t="n">
+        <v>0.978</v>
       </c>
     </row>
     <row r="13">
@@ -1610,34 +1844,34 @@
       <c r="B13" s="2" t="n">
         <v>0.987</v>
       </c>
-      <c r="C13" s="51" t="n">
-        <v>0.2775</v>
-      </c>
-      <c r="D13" s="52" t="n">
-        <v>0.2735</v>
-      </c>
-      <c r="E13" s="51" t="n">
-        <v>0.276</v>
-      </c>
-      <c r="F13" s="51" t="n">
+      <c r="C13" s="2" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="D13" s="60" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="E13" s="60" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="H13" s="67" t="n">
         <v>0.275</v>
       </c>
-      <c r="G13" s="52" t="n">
-        <v>0.273</v>
-      </c>
-      <c r="H13" s="51" t="n">
-        <v>0.275</v>
-      </c>
       <c r="I13" s="2" t="n">
-        <v>0.9875</v>
-      </c>
-      <c r="J13" s="50" t="n">
-        <v>0.9795</v>
-      </c>
-      <c r="K13" s="48" t="n">
-        <v>0.9815</v>
-      </c>
-      <c r="L13" s="6" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="J13" s="60" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="K13" s="64" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="L13" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1650,34 +1884,34 @@
       <c r="B14" s="2" t="n">
         <v>0.9975000000000001</v>
       </c>
-      <c r="C14" s="53" t="n">
+      <c r="C14" s="68" t="n">
         <v>0.425</v>
       </c>
-      <c r="D14" s="9" t="n">
+      <c r="D14" s="69" t="n">
         <v>0.4375</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="3" t="n">
         <v>0.335</v>
       </c>
-      <c r="F14" s="54" t="n">
+      <c r="F14" s="70" t="n">
         <v>0.43375</v>
       </c>
-      <c r="G14" s="53" t="n">
+      <c r="G14" s="68" t="n">
         <v>0.42375</v>
       </c>
-      <c r="H14" s="55" t="n">
+      <c r="H14" s="71" t="n">
         <v>0.43125</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>0.995</v>
       </c>
-      <c r="J14" s="50" t="n">
+      <c r="J14" s="60" t="n">
         <v>0.99</v>
       </c>
-      <c r="K14" s="49" t="n">
+      <c r="K14" s="66" t="n">
         <v>0.98875</v>
       </c>
-      <c r="L14" s="50" t="n">
+      <c r="L14" s="60" t="n">
         <v>0.99</v>
       </c>
     </row>
@@ -1690,34 +1924,34 @@
       <c r="B15" s="2" t="n">
         <v>0.9975000000000001</v>
       </c>
-      <c r="C15" s="36" t="n">
+      <c r="C15" s="72" t="n">
         <v>0.4325</v>
       </c>
-      <c r="D15" s="32" t="n">
+      <c r="D15" s="73" t="n">
         <v>0.44375</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="74" t="n">
         <v>0.45</v>
       </c>
-      <c r="F15" s="25" t="n">
+      <c r="F15" s="75" t="n">
         <v>0.42625</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="3" t="n">
         <v>0.42125</v>
       </c>
-      <c r="H15" s="36" t="n">
+      <c r="H15" s="72" t="n">
         <v>0.43125</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>0.99625</v>
       </c>
-      <c r="J15" s="48" t="n">
+      <c r="J15" s="64" t="n">
         <v>0.99375</v>
       </c>
-      <c r="K15" s="48" t="n">
+      <c r="K15" s="64" t="n">
         <v>0.99375</v>
       </c>
-      <c r="L15" s="48" t="n">
+      <c r="L15" s="64" t="n">
         <v>0.99375</v>
       </c>
     </row>
@@ -1730,22 +1964,22 @@
       <c r="B16" s="2" t="n">
         <v>0.9975000000000001</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="3" t="n">
         <v>0.42625</v>
       </c>
-      <c r="D16" s="11" t="n">
+      <c r="D16" s="76" t="n">
         <v>0.4325</v>
       </c>
-      <c r="E16" s="32" t="n">
+      <c r="E16" s="73" t="n">
         <v>0.44625</v>
       </c>
-      <c r="F16" s="25" t="n">
+      <c r="F16" s="75" t="n">
         <v>0.43125</v>
       </c>
-      <c r="G16" s="25" t="n">
+      <c r="G16" s="75" t="n">
         <v>0.43125</v>
       </c>
-      <c r="H16" s="6" t="n">
+      <c r="H16" s="3" t="n">
         <v>0.425</v>
       </c>
       <c r="I16" s="2" t="n">
@@ -1754,10 +1988,10 @@
       <c r="J16" s="2" t="n">
         <v>0.99625</v>
       </c>
-      <c r="K16" s="48" t="n">
+      <c r="K16" s="64" t="n">
         <v>0.99375</v>
       </c>
-      <c r="L16" s="48" t="n">
+      <c r="L16" s="64" t="n">
         <v>0.995</v>
       </c>
     </row>
@@ -1770,28 +2004,28 @@
       <c r="B17" s="2" t="n">
         <v>0.9975000000000001</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="77" t="n">
         <v>0.4225</v>
       </c>
-      <c r="D17" s="36" t="n">
+      <c r="D17" s="72" t="n">
         <v>0.43</v>
       </c>
-      <c r="E17" s="36" t="n">
+      <c r="E17" s="72" t="n">
         <v>0.43</v>
       </c>
-      <c r="F17" s="11" t="n">
+      <c r="F17" s="76" t="n">
         <v>0.4275</v>
       </c>
-      <c r="G17" s="6" t="n">
+      <c r="G17" s="3" t="n">
         <v>0.41875</v>
       </c>
-      <c r="H17" s="11" t="n">
+      <c r="H17" s="76" t="n">
         <v>0.4275</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>0.99625</v>
       </c>
-      <c r="J17" s="48" t="n">
+      <c r="J17" s="64" t="n">
         <v>0.995</v>
       </c>
       <c r="K17" s="2" t="n">
@@ -1810,22 +2044,22 @@
       <c r="B18" s="2" t="n">
         <v>0.9975000000000001</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="3" t="n">
         <v>0.42125</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="3" t="n">
         <v>0.42125</v>
       </c>
-      <c r="E18" s="25" t="n">
+      <c r="E18" s="75" t="n">
         <v>0.4275</v>
       </c>
-      <c r="F18" s="42" t="n">
+      <c r="F18" s="78" t="n">
         <v>0.43625</v>
       </c>
-      <c r="G18" s="36" t="n">
+      <c r="G18" s="72" t="n">
         <v>0.4325</v>
       </c>
-      <c r="H18" s="36" t="n">
+      <c r="H18" s="72" t="n">
         <v>0.43125</v>
       </c>
       <c r="I18" s="2" t="n">
@@ -1850,22 +2084,22 @@
       <c r="B19" s="2" t="n">
         <v>0.9975000000000001</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="79" t="n">
         <v>0.43375</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="77" t="n">
         <v>0.42</v>
       </c>
-      <c r="E19" s="17" t="n">
+      <c r="E19" s="80" t="n">
         <v>0.42875</v>
       </c>
-      <c r="F19" s="17" t="n">
+      <c r="F19" s="80" t="n">
         <v>0.42875</v>
       </c>
-      <c r="G19" s="6" t="n">
+      <c r="G19" s="3" t="n">
         <v>0.41625</v>
       </c>
-      <c r="H19" s="25" t="n">
+      <c r="H19" s="75" t="n">
         <v>0.4225</v>
       </c>
       <c r="I19" s="2" t="n">
@@ -1888,37 +2122,37 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.941885824</v>
-      </c>
-      <c r="C20" s="56" t="n">
-        <v>0.11289288</v>
-      </c>
-      <c r="D20" s="57" t="n">
-        <v>0.135343169</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>0.07479153299999999</v>
-      </c>
-      <c r="F20" s="36" t="n">
-        <v>0.09057087900000001</v>
-      </c>
-      <c r="G20" s="58" t="n">
-        <v>0.14599102</v>
-      </c>
-      <c r="H20" s="17" t="n">
-        <v>0.094291212</v>
-      </c>
-      <c r="I20" s="59" t="n">
-        <v>0.501988454</v>
-      </c>
-      <c r="J20" s="60" t="n">
-        <v>0.490570879</v>
-      </c>
-      <c r="K20" s="60" t="n">
-        <v>0.491084028</v>
-      </c>
-      <c r="L20" s="61" t="n">
-        <v>0.448492623</v>
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="C20" s="81" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="D20" s="82" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="E20" s="83" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F20" s="84" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G20" s="85" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="I20" s="86" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="J20" s="87" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="K20" s="87" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="L20" s="22" t="n">
+        <v>0.448</v>
       </c>
     </row>
     <row r="21">
@@ -1928,37 +2162,37 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.941885824</v>
-      </c>
-      <c r="C21" s="62" t="n">
-        <v>0.176908275</v>
-      </c>
-      <c r="D21" s="62" t="n">
-        <v>0.176523412</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>0.096215523</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>0.121359846</v>
-      </c>
-      <c r="G21" s="63" t="n">
-        <v>0.18396408</v>
-      </c>
-      <c r="H21" s="16" t="n">
-        <v>0.130853111</v>
-      </c>
-      <c r="I21" s="64" t="n">
-        <v>0.728030789</v>
-      </c>
-      <c r="J21" s="65" t="n">
-        <v>0.67979474</v>
-      </c>
-      <c r="K21" s="21" t="n">
-        <v>0.675817832</v>
-      </c>
-      <c r="L21" s="66" t="n">
-        <v>0.559461193</v>
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="C21" s="88" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D21" s="89" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="F21" s="90" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="G21" s="50" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="I21" s="49" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="J21" s="31" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K21" s="26" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="L21" s="91" t="n">
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -1968,37 +2202,37 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.941885824</v>
-      </c>
-      <c r="C22" s="58" t="n">
-        <v>0.199743425</v>
-      </c>
-      <c r="D22" s="67" t="n">
-        <v>0.201411161</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>0.130083387</v>
-      </c>
-      <c r="F22" s="57" t="n">
-        <v>0.184348942</v>
-      </c>
-      <c r="G22" s="18" t="n">
-        <v>0.204233483</v>
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="C22" s="92" t="n">
+        <v>0.871</v>
+      </c>
+      <c r="D22" s="92" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="E22" s="93" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="F22" s="94" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="G22" s="59" t="n">
+        <v>0.865</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>0.152405388</v>
-      </c>
-      <c r="I22" s="68" t="n">
-        <v>0.8128287360000001</v>
-      </c>
-      <c r="J22" s="68" t="n">
-        <v>0.813341886</v>
-      </c>
-      <c r="K22" s="69" t="n">
-        <v>0.797690827</v>
-      </c>
-      <c r="L22" s="70" t="n">
-        <v>0.627838358</v>
+        <v>0.152</v>
+      </c>
+      <c r="I22" s="88" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="J22" s="88" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="K22" s="95" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="L22" s="96" t="n">
+        <v>0.628</v>
       </c>
     </row>
     <row r="23">
@@ -2008,37 +2242,37 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.941885824</v>
-      </c>
-      <c r="C23" s="57" t="n">
-        <v>0.213341886</v>
-      </c>
-      <c r="D23" s="57" t="n">
-        <v>0.212957024</v>
-      </c>
-      <c r="E23" s="71" t="n">
-        <v>0.201154586</v>
-      </c>
-      <c r="F23" s="72" t="n">
-        <v>0.207440667</v>
-      </c>
-      <c r="G23" s="57" t="n">
-        <v>0.213341886</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <v>0.160744067</v>
-      </c>
-      <c r="I23" s="43" t="n">
-        <v>0.9069916609999999</v>
-      </c>
-      <c r="J23" s="73" t="n">
-        <v>0.8941629250000001</v>
-      </c>
-      <c r="K23" s="74" t="n">
-        <v>0.860166774</v>
-      </c>
-      <c r="L23" s="75" t="n">
-        <v>0.674150096</v>
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="C23" s="43" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="D23" s="43" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="E23" s="97" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="F23" s="46" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="G23" s="52" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="I23" s="58" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="J23" s="37" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="K23" s="98" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="L23" s="99" t="n">
+        <v>0.674</v>
       </c>
     </row>
     <row r="24">
@@ -2048,37 +2282,37 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.941885824</v>
-      </c>
-      <c r="C24" s="76" t="n">
-        <v>0.216933932</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>0.213855035</v>
-      </c>
-      <c r="E24" s="24" t="n">
-        <v>0.20923669</v>
-      </c>
-      <c r="F24" s="24" t="n">
-        <v>0.210262989</v>
-      </c>
-      <c r="G24" s="76" t="n">
-        <v>0.216933932</v>
-      </c>
-      <c r="H24" s="6" t="n">
-        <v>0.158434894</v>
-      </c>
-      <c r="I24" s="47" t="n">
-        <v>0.92264272</v>
-      </c>
-      <c r="J24" s="77" t="n">
-        <v>0.911096857</v>
-      </c>
-      <c r="K24" s="78" t="n">
-        <v>0.887363695</v>
-      </c>
-      <c r="L24" s="20" t="n">
-        <v>0.682873637</v>
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="C24" s="66" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D24" s="65" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="E24" s="100" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="F24" s="101" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="G24" s="66" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="I24" s="65" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="J24" s="101" t="n">
+        <v>0.911</v>
+      </c>
+      <c r="K24" s="102" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="L24" s="103" t="n">
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -2088,36 +2322,36 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.941885824</v>
-      </c>
-      <c r="C25" s="6" t="n">
-        <v>0.214239897</v>
-      </c>
-      <c r="D25" s="6" t="n">
-        <v>0.213726748</v>
-      </c>
-      <c r="E25" s="4" t="n">
-        <v>0.217062219</v>
-      </c>
-      <c r="F25" s="4" t="n">
-        <v>0.216805645</v>
-      </c>
-      <c r="G25" s="25" t="n">
-        <v>0.219756254</v>
-      </c>
-      <c r="H25" s="4" t="n">
-        <v>0.218216806</v>
-      </c>
-      <c r="I25" s="50" t="n">
-        <v>0.934060295</v>
-      </c>
-      <c r="J25" s="79" t="n">
-        <v>0.930468249</v>
-      </c>
-      <c r="K25" s="80" t="n">
-        <v>0.904939064</v>
-      </c>
-      <c r="L25" s="81" t="n">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="C25" s="60" t="n">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="D25" s="64" t="n">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="E25" s="66" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="F25" s="60" t="n">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="G25" s="64" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="I25" s="60" t="n">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="J25" s="63" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="K25" s="100" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="L25" s="104" t="n">
         <v>0.682873637</v>
       </c>
     </row>
@@ -2130,34 +2364,34 @@
       <c r="B26" s="2" t="n">
         <v>0.573</v>
       </c>
-      <c r="C26" s="5" t="n">
+      <c r="C26" s="105" t="n">
         <v>0.153</v>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="D26" s="105" t="n">
         <v>0.154</v>
       </c>
-      <c r="E26" s="71" t="n">
+      <c r="E26" s="106" t="n">
         <v>0.152</v>
       </c>
-      <c r="F26" s="26" t="n">
+      <c r="F26" s="107" t="n">
         <v>0.164</v>
       </c>
-      <c r="G26" s="31" t="n">
+      <c r="G26" s="108" t="n">
         <v>0.16</v>
       </c>
-      <c r="H26" s="6" t="n">
+      <c r="H26" s="3" t="n">
         <v>0.128</v>
       </c>
-      <c r="I26" s="71" t="n">
+      <c r="I26" s="106" t="n">
         <v>0.152</v>
       </c>
-      <c r="J26" s="17" t="n">
+      <c r="J26" s="80" t="n">
         <v>0.138</v>
       </c>
-      <c r="K26" s="18" t="n">
+      <c r="K26" s="109" t="n">
         <v>0.168</v>
       </c>
-      <c r="L26" s="7" t="n">
+      <c r="L26" s="74" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2170,34 +2404,34 @@
       <c r="B27" s="2" t="n">
         <v>0.573</v>
       </c>
-      <c r="C27" s="32" t="n">
+      <c r="C27" s="73" t="n">
         <v>0.167</v>
       </c>
-      <c r="D27" s="58" t="n">
+      <c r="D27" s="110" t="n">
         <v>0.186</v>
       </c>
-      <c r="E27" s="67" t="n">
+      <c r="E27" s="111" t="n">
         <v>0.188</v>
       </c>
-      <c r="F27" s="62" t="n">
+      <c r="F27" s="6" t="n">
         <v>0.192</v>
       </c>
-      <c r="G27" s="62" t="n">
+      <c r="G27" s="6" t="n">
         <v>0.192</v>
       </c>
-      <c r="H27" s="6" t="n">
+      <c r="H27" s="3" t="n">
         <v>0.151</v>
       </c>
-      <c r="I27" s="76" t="n">
+      <c r="I27" s="8" t="n">
         <v>0.183</v>
       </c>
-      <c r="J27" s="18" t="n">
+      <c r="J27" s="109" t="n">
         <v>0.19</v>
       </c>
-      <c r="K27" s="58" t="n">
+      <c r="K27" s="110" t="n">
         <v>0.187</v>
       </c>
-      <c r="L27" s="55" t="n">
+      <c r="L27" s="71" t="n">
         <v>0.213</v>
       </c>
     </row>
@@ -2210,34 +2444,34 @@
       <c r="B28" s="2" t="n">
         <v>0.573</v>
       </c>
-      <c r="C28" s="82" t="n">
+      <c r="C28" s="112" t="n">
         <v>0.283</v>
       </c>
-      <c r="D28" s="83" t="n">
+      <c r="D28" s="113" t="n">
         <v>0.272</v>
       </c>
-      <c r="E28" s="84" t="n">
+      <c r="E28" s="114" t="n">
         <v>0.301</v>
       </c>
-      <c r="F28" s="85" t="n">
+      <c r="F28" s="115" t="n">
         <v>0.247</v>
       </c>
-      <c r="G28" s="86" t="n">
+      <c r="G28" s="116" t="n">
         <v>0.275</v>
       </c>
-      <c r="H28" s="6" t="n">
+      <c r="H28" s="3" t="n">
         <v>0.18</v>
       </c>
-      <c r="I28" s="87" t="n">
+      <c r="I28" s="10" t="n">
         <v>0.292</v>
       </c>
-      <c r="J28" s="84" t="n">
+      <c r="J28" s="114" t="n">
         <v>0.301</v>
       </c>
-      <c r="K28" s="82" t="n">
+      <c r="K28" s="112" t="n">
         <v>0.283</v>
       </c>
-      <c r="L28" s="88" t="n">
+      <c r="L28" s="117" t="n">
         <v>0.285</v>
       </c>
     </row>
@@ -2250,34 +2484,34 @@
       <c r="B29" s="2" t="n">
         <v>0.573</v>
       </c>
-      <c r="C29" s="89" t="n">
+      <c r="C29" s="118" t="n">
         <v>0.367</v>
       </c>
-      <c r="D29" s="15" t="n">
+      <c r="D29" s="119" t="n">
         <v>0.387</v>
       </c>
-      <c r="E29" s="61" t="n">
+      <c r="E29" s="120" t="n">
         <v>0.355</v>
       </c>
-      <c r="F29" s="90" t="n">
+      <c r="F29" s="121" t="n">
         <v>0.304</v>
       </c>
-      <c r="G29" s="91" t="n">
+      <c r="G29" s="122" t="n">
         <v>0.38</v>
       </c>
-      <c r="H29" s="6" t="n">
+      <c r="H29" s="3" t="n">
         <v>0.189</v>
       </c>
-      <c r="I29" s="92" t="n">
+      <c r="I29" s="123" t="n">
         <v>0.395</v>
       </c>
-      <c r="J29" s="93" t="n">
+      <c r="J29" s="124" t="n">
         <v>0.382</v>
       </c>
-      <c r="K29" s="12" t="n">
+      <c r="K29" s="125" t="n">
         <v>0.352</v>
       </c>
-      <c r="L29" s="94" t="n">
+      <c r="L29" s="126" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -2290,34 +2524,34 @@
       <c r="B30" s="2" t="n">
         <v>0.573</v>
       </c>
-      <c r="C30" s="30" t="n">
+      <c r="C30" s="127" t="n">
         <v>0.51</v>
       </c>
-      <c r="D30" s="95" t="n">
+      <c r="D30" s="128" t="n">
         <v>0.465</v>
       </c>
-      <c r="E30" s="96" t="n">
+      <c r="E30" s="129" t="n">
         <v>0.463</v>
       </c>
-      <c r="F30" s="97" t="n">
+      <c r="F30" s="130" t="n">
         <v>0.42</v>
       </c>
-      <c r="G30" s="69" t="n">
+      <c r="G30" s="35" t="n">
         <v>0.509</v>
       </c>
-      <c r="H30" s="6" t="n">
+      <c r="H30" s="3" t="n">
         <v>0.209</v>
       </c>
-      <c r="I30" s="98" t="n">
+      <c r="I30" s="131" t="n">
         <v>0.474</v>
       </c>
-      <c r="J30" s="99" t="n">
+      <c r="J30" s="132" t="n">
         <v>0.471</v>
       </c>
-      <c r="K30" s="28" t="n">
+      <c r="K30" s="133" t="n">
         <v>0.473</v>
       </c>
-      <c r="L30" s="100" t="n">
+      <c r="L30" s="20" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -2330,34 +2564,34 @@
       <c r="B31" s="2" t="n">
         <v>0.764</v>
       </c>
-      <c r="C31" s="11" t="n">
+      <c r="C31" s="76" t="n">
         <v>0.1183</v>
       </c>
-      <c r="D31" s="36" t="n">
+      <c r="D31" s="72" t="n">
         <v>0.1203</v>
       </c>
-      <c r="E31" s="6" t="n">
+      <c r="E31" s="3" t="n">
         <v>0.1099</v>
       </c>
-      <c r="F31" s="23" t="n">
+      <c r="F31" s="134" t="n">
         <v>0.1312</v>
       </c>
-      <c r="G31" s="23" t="n">
+      <c r="G31" s="134" t="n">
         <v>0.1325</v>
       </c>
-      <c r="H31" s="4" t="n">
+      <c r="H31" s="77" t="n">
         <v>0.1143</v>
       </c>
-      <c r="I31" s="71" t="n">
+      <c r="I31" s="106" t="n">
         <v>0.1453</v>
       </c>
-      <c r="J31" s="57" t="n">
+      <c r="J31" s="135" t="n">
         <v>0.1535</v>
       </c>
-      <c r="K31" s="26" t="n">
+      <c r="K31" s="107" t="n">
         <v>0.163</v>
       </c>
-      <c r="L31" s="5" t="n">
+      <c r="L31" s="105" t="n">
         <v>0.1471</v>
       </c>
     </row>
@@ -2370,34 +2604,34 @@
       <c r="B32" s="2" t="n">
         <v>0.764</v>
       </c>
-      <c r="C32" s="23" t="n">
+      <c r="C32" s="134" t="n">
         <v>0.1351</v>
       </c>
-      <c r="D32" s="32" t="n">
+      <c r="D32" s="73" t="n">
         <v>0.1383</v>
       </c>
-      <c r="E32" s="6" t="n">
+      <c r="E32" s="3" t="n">
         <v>0.1136</v>
       </c>
-      <c r="F32" s="57" t="n">
+      <c r="F32" s="135" t="n">
         <v>0.1587</v>
       </c>
-      <c r="G32" s="76" t="n">
+      <c r="G32" s="8" t="n">
         <v>0.1619</v>
       </c>
-      <c r="H32" s="24" t="n">
+      <c r="H32" s="136" t="n">
         <v>0.1554</v>
       </c>
-      <c r="I32" s="101" t="n">
+      <c r="I32" s="137" t="n">
         <v>0.1991</v>
       </c>
-      <c r="J32" s="102" t="n">
+      <c r="J32" s="9" t="n">
         <v>0.2321</v>
       </c>
-      <c r="K32" s="103" t="n">
+      <c r="K32" s="138" t="n">
         <v>0.2451</v>
       </c>
-      <c r="L32" s="83" t="n">
+      <c r="L32" s="113" t="n">
         <v>0.264</v>
       </c>
     </row>
@@ -2410,34 +2644,34 @@
       <c r="B33" s="2" t="n">
         <v>0.764</v>
       </c>
-      <c r="C33" s="56" t="n">
+      <c r="C33" s="139" t="n">
         <v>0.164</v>
       </c>
-      <c r="D33" s="16" t="n">
+      <c r="D33" s="140" t="n">
         <v>0.1621</v>
       </c>
-      <c r="E33" s="6" t="n">
+      <c r="E33" s="3" t="n">
         <v>0.137</v>
       </c>
-      <c r="F33" s="31" t="n">
+      <c r="F33" s="108" t="n">
         <v>0.182</v>
       </c>
-      <c r="G33" s="58" t="n">
+      <c r="G33" s="110" t="n">
         <v>0.1903</v>
       </c>
-      <c r="H33" s="5" t="n">
+      <c r="H33" s="105" t="n">
         <v>0.1717</v>
       </c>
-      <c r="I33" s="104" t="n">
+      <c r="I33" s="141" t="n">
         <v>0.3166</v>
       </c>
-      <c r="J33" s="105" t="n">
+      <c r="J33" s="142" t="n">
         <v>0.3441</v>
       </c>
-      <c r="K33" s="106" t="n">
+      <c r="K33" s="143" t="n">
         <v>0.346</v>
       </c>
-      <c r="L33" s="107" t="n">
+      <c r="L33" s="144" t="n">
         <v>0.3548</v>
       </c>
     </row>
@@ -2450,34 +2684,34 @@
       <c r="B34" s="2" t="n">
         <v>0.764</v>
       </c>
-      <c r="C34" s="56" t="n">
+      <c r="C34" s="139" t="n">
         <v>0.1849</v>
       </c>
-      <c r="D34" s="42" t="n">
+      <c r="D34" s="78" t="n">
         <v>0.1732</v>
       </c>
-      <c r="E34" s="6" t="n">
+      <c r="E34" s="3" t="n">
         <v>0.1579</v>
       </c>
-      <c r="F34" s="5" t="n">
+      <c r="F34" s="105" t="n">
         <v>0.1928</v>
       </c>
-      <c r="G34" s="62" t="n">
+      <c r="G34" s="6" t="n">
         <v>0.2169</v>
       </c>
-      <c r="H34" s="24" t="n">
+      <c r="H34" s="136" t="n">
         <v>0.1968</v>
       </c>
-      <c r="I34" s="91" t="n">
+      <c r="I34" s="122" t="n">
         <v>0.4594</v>
       </c>
-      <c r="J34" s="92" t="n">
+      <c r="J34" s="123" t="n">
         <v>0.4828</v>
       </c>
-      <c r="K34" s="108" t="n">
+      <c r="K34" s="145" t="n">
         <v>0.4963</v>
       </c>
-      <c r="L34" s="91" t="n">
+      <c r="L34" s="122" t="n">
         <v>0.4593</v>
       </c>
     </row>
@@ -2490,34 +2724,34 @@
       <c r="B35" s="2" t="n">
         <v>0.764</v>
       </c>
-      <c r="C35" s="72" t="n">
+      <c r="C35" s="146" t="n">
         <v>0.2124</v>
       </c>
-      <c r="D35" s="36" t="n">
+      <c r="D35" s="72" t="n">
         <v>0.1882</v>
       </c>
-      <c r="E35" s="6" t="n">
+      <c r="E35" s="3" t="n">
         <v>0.1775</v>
       </c>
-      <c r="F35" s="76" t="n">
+      <c r="F35" s="8" t="n">
         <v>0.2222</v>
       </c>
-      <c r="G35" s="76" t="n">
+      <c r="G35" s="8" t="n">
         <v>0.2224</v>
       </c>
-      <c r="H35" s="5" t="n">
+      <c r="H35" s="105" t="n">
         <v>0.2098</v>
       </c>
-      <c r="I35" s="81" t="n">
+      <c r="I35" s="104" t="n">
         <v>0.5534</v>
       </c>
-      <c r="J35" s="20" t="n">
+      <c r="J35" s="103" t="n">
         <v>0.5693</v>
       </c>
-      <c r="K35" s="96" t="n">
+      <c r="K35" s="129" t="n">
         <v>0.5858</v>
       </c>
-      <c r="L35" s="109" t="n">
+      <c r="L35" s="147" t="n">
         <v>0.5499000000000001</v>
       </c>
     </row>
@@ -2530,34 +2764,34 @@
       <c r="B36" s="2" t="n">
         <v>0.764</v>
       </c>
-      <c r="C36" s="42" t="n">
+      <c r="C36" s="78" t="n">
         <v>0.2251</v>
       </c>
-      <c r="D36" s="42" t="n">
+      <c r="D36" s="78" t="n">
         <v>0.2252</v>
       </c>
-      <c r="E36" s="6" t="n">
+      <c r="E36" s="3" t="n">
         <v>0.2114</v>
       </c>
-      <c r="F36" s="7" t="n">
+      <c r="F36" s="74" t="n">
         <v>0.2386</v>
       </c>
-      <c r="G36" s="7" t="n">
+      <c r="G36" s="74" t="n">
         <v>0.2391</v>
       </c>
-      <c r="H36" s="42" t="n">
+      <c r="H36" s="78" t="n">
         <v>0.2248</v>
       </c>
-      <c r="I36" s="39" t="n">
+      <c r="I36" s="148" t="n">
         <v>0.6567</v>
       </c>
-      <c r="J36" s="110" t="n">
+      <c r="J36" s="149" t="n">
         <v>0.6819</v>
       </c>
-      <c r="K36" s="111" t="n">
+      <c r="K36" s="38" t="n">
         <v>0.6852</v>
       </c>
-      <c r="L36" s="70" t="n">
+      <c r="L36" s="150" t="n">
         <v>0.5499000000000001</v>
       </c>
     </row>

--- a/results/all_results_colors.xlsx
+++ b/results/all_results_colors.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00000000"/>
     </font>
   </fonts>
-  <fills count="151">
+  <fills count="163">
     <fill>
       <patternFill/>
     </fill>
@@ -164,17 +164,552 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00CE2827"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FCA85E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FECE7C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFDBC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C1E57B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004BB05C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F47044"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F67F4B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEEDA1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0078C565"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0069BE63"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0045AD5B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0063BC62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0016914D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00108647"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0004703B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E65036"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00AB0626"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B50F26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BB1526"/>
+        <fgColor rgb="00FFF7B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008CCD67"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0006733D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F7814C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8FCB6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A2D76A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D93429"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F57748"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FED481"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E9F6A1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004EB15D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FCAA5F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEE491"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F5FBB2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006EC064"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0039A758"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000B7D42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BD1726"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A90426"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AF0926"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F57245"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F88C51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEE28F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001E9A51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000D8044"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BE1827"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D02927"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDB163"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEEA9B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A7D96B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D83128"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F98E52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEE999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009BD469"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D42D27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DB382B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEE593"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B1DE71"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000E8245"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A9DA6C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0018954F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E54E35"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B10B26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F99355"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FED27F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006BBF64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00128A49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000A7B41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CC2627"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EB5A3A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDAD60"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0F295"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EF633F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEDC88"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C3E67D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEEB9D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AFDD70"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007DC765"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0033A456"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0007753E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DFF293"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C82227"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8864F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFEBE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0054B45F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8F59F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007FC866"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0036A657"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CA2427"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBA05B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E44C34"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B9E176"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00249D53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0066BD63"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFAB6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBA35C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1F9AC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0093D168"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D62F27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F88950"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CFEB85"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EE613E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF1A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BDE379"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A0D669"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0075C465"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002DA155"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0070C164"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF5AE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D22B27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEFFBE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0098D368"/>
       </patternFill>
     </fill>
     <fill>
@@ -184,472 +719,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B10B26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F47044"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F67F4B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FEEDA1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0078C565"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0069BE63"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0045AD5B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0063BC62"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0016914D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00108647"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0004703B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E65036"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF7B2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008CCD67"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0006733D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CE2827"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F7814C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F8FCB6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A2D76A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B91326"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FCAA5F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FEE491"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F5FBB2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006EC064"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0039A758"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000B7D42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BD1726"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A90426"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AF0926"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F57245"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F88C51"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FEE28F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001E9A51"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000D8044"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BE1827"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D02927"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FDB163"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FEEA9B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A7D96B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D42D27"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DB382B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FEE593"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B1DE71"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000E8245"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A9DA6C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0018954F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E54E35"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F99355"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FED27F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006BBF64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00128A49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000A7B41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CC2627"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EB5A3A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FDAD60"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E0F295"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C62027"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C82227"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CA2427"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FEEB9D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AFDD70"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007DC765"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0033A456"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0007753E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DFF293"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F8864F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFEBE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0054B45F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBA05B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E44C34"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C41E27"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B9E176"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00249D53"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0066BD63"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFAB6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBA35C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F1F9AC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0093D168"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E0422F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FCA55D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C3E67D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0060BA62"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EE613E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF1A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BDE379"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A0D669"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0075C465"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002DA155"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0070C164"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF5AE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D22B27"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FEFFBE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0098D368"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FDBD6D"/>
+        <fgColor rgb="00FDFEBC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003FAA59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDB768"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B3DF72"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002AA054"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00148E4B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0057B65F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001B9950"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00118848"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEE797"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0096D268"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EC5C3B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003CA959"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFBB8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A5D86A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005AB760"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005DB961"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F4FAB0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D7EE8A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BBE278"/>
       </patternFill>
     </fill>
     <fill>
@@ -659,57 +824,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003FAA59"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FDB768"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B3DF72"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002AA054"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00148E4B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004BB05C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0057B65F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001B9950"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00118848"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FEE797"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0096D268"/>
+        <fgColor rgb="00FA9857"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF6B0"/>
       </patternFill>
     </fill>
     <fill>
@@ -719,72 +839,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FDBF6F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E9F6A1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFBB8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A5D86A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005AB760"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005DB961"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F4FAB0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D7EE8A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BBE278"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FA9857"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF6B0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FDC574"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C7E77F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D3EC87"/>
+        <fgColor rgb="00FDB365"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D1EC86"/>
       </patternFill>
     </fill>
   </fills>
@@ -806,160 +866,172 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="69" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="88" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="78" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="112" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="105" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="125" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="119" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="51" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="89" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="113" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="79" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="99" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="126" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="139" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="150" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="71" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="90" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="101" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="114" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="80" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="100" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="115" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="127" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="140" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="151" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="72" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="91" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="115" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="97" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="58" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="81" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="101" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="128" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="108" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="152" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="102" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="116" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="129" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="141" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="92" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="102" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="116" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="128" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="73" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="80" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="117" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="129" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="74" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="93" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="103" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="118" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="90" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="130" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="142" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="83" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="103" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="117" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="131" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="153" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="84" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="98" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="113" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="99" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="85" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="114" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="86" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="64" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="87" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="104" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="118" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="132" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="88" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="154" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="66" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="89" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="143" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="155" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="67" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="144" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="156" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="68" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="91" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="145" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="157" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="98" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="69" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="92" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="105" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="133" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="71" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="93" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="106" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="158" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="72" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="94" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="107" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="120" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="134" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="146" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="159" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="73" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="95" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="121" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="135" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="147" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="96" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="136" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="97" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="122" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="148" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="160" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="74" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="109" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="123" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="161" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="110" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="137" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="76" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="111" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="124" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="162" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="77" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="94" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="104" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="119" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="78" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="143" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="61" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="79" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="131" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="144" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="132" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="145" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="81" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="133" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="124" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="110" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="64" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="87" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="120" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="66" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="83" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="95" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="146" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="67" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="84" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="96" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="106" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="121" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="134" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="147" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="68" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="85" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="107" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="122" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="135" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="86" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="100" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="108" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="136" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="109" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="123" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="137" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="148" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="138" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="149" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="111" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="125" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="150" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="138" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="149" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2564,35 +2636,35 @@
       <c r="B31" s="2" t="n">
         <v>0.764</v>
       </c>
-      <c r="C31" s="76" t="n">
-        <v>0.1183</v>
-      </c>
-      <c r="D31" s="72" t="n">
-        <v>0.1203</v>
-      </c>
-      <c r="E31" s="3" t="n">
-        <v>0.1099</v>
+      <c r="C31" s="110" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="D31" s="73" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="E31" s="77" t="n">
+        <v>0.119</v>
       </c>
       <c r="F31" s="134" t="n">
-        <v>0.1312</v>
+        <v>0.234</v>
       </c>
       <c r="G31" s="134" t="n">
-        <v>0.1325</v>
-      </c>
-      <c r="H31" s="77" t="n">
-        <v>0.1143</v>
-      </c>
-      <c r="I31" s="106" t="n">
-        <v>0.1453</v>
+        <v>0.234</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="I31" s="74" t="n">
+        <v>0.145</v>
       </c>
       <c r="J31" s="135" t="n">
-        <v>0.1535</v>
-      </c>
-      <c r="K31" s="107" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="K31" s="8" t="n">
         <v>0.163</v>
       </c>
-      <c r="L31" s="105" t="n">
-        <v>0.1471</v>
+      <c r="L31" s="74" t="n">
+        <v>0.147</v>
       </c>
     </row>
     <row r="32">
@@ -2604,34 +2676,34 @@
       <c r="B32" s="2" t="n">
         <v>0.764</v>
       </c>
-      <c r="C32" s="134" t="n">
-        <v>0.1351</v>
-      </c>
-      <c r="D32" s="73" t="n">
-        <v>0.1383</v>
+      <c r="C32" s="136" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D32" s="137" t="n">
+        <v>0.205</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>0.1136</v>
-      </c>
-      <c r="F32" s="135" t="n">
-        <v>0.1587</v>
-      </c>
-      <c r="G32" s="8" t="n">
-        <v>0.1619</v>
-      </c>
-      <c r="H32" s="136" t="n">
-        <v>0.1554</v>
-      </c>
-      <c r="I32" s="137" t="n">
-        <v>0.1991</v>
-      </c>
-      <c r="J32" s="9" t="n">
-        <v>0.2321</v>
-      </c>
-      <c r="K32" s="138" t="n">
-        <v>0.2451</v>
-      </c>
-      <c r="L32" s="113" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="F32" s="138" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="G32" s="90" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H32" s="79" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I32" s="139" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="J32" s="70" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="K32" s="140" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="L32" s="141" t="n">
         <v>0.264</v>
       </c>
     </row>
@@ -2644,35 +2716,35 @@
       <c r="B33" s="2" t="n">
         <v>0.764</v>
       </c>
-      <c r="C33" s="139" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="D33" s="140" t="n">
-        <v>0.1621</v>
-      </c>
-      <c r="E33" s="3" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="F33" s="108" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="G33" s="110" t="n">
-        <v>0.1903</v>
-      </c>
-      <c r="H33" s="105" t="n">
-        <v>0.1717</v>
-      </c>
-      <c r="I33" s="141" t="n">
-        <v>0.3166</v>
-      </c>
-      <c r="J33" s="142" t="n">
-        <v>0.3441</v>
-      </c>
-      <c r="K33" s="143" t="n">
+      <c r="C33" s="142" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="D33" s="143" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="E33" s="144" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="F33" s="82" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="G33" s="145" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="I33" s="146" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="J33" s="136" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="K33" s="5" t="n">
         <v>0.346</v>
       </c>
-      <c r="L33" s="144" t="n">
-        <v>0.3548</v>
+      <c r="L33" s="147" t="n">
+        <v>0.355</v>
       </c>
     </row>
     <row r="34">
@@ -2684,35 +2756,35 @@
       <c r="B34" s="2" t="n">
         <v>0.764</v>
       </c>
-      <c r="C34" s="139" t="n">
-        <v>0.1849</v>
-      </c>
-      <c r="D34" s="78" t="n">
-        <v>0.1732</v>
-      </c>
-      <c r="E34" s="3" t="n">
-        <v>0.1579</v>
-      </c>
-      <c r="F34" s="105" t="n">
-        <v>0.1928</v>
-      </c>
-      <c r="G34" s="6" t="n">
-        <v>0.2169</v>
-      </c>
-      <c r="H34" s="136" t="n">
-        <v>0.1968</v>
-      </c>
-      <c r="I34" s="122" t="n">
-        <v>0.4594</v>
-      </c>
-      <c r="J34" s="123" t="n">
-        <v>0.4828</v>
-      </c>
-      <c r="K34" s="145" t="n">
-        <v>0.4963</v>
-      </c>
-      <c r="L34" s="122" t="n">
-        <v>0.4593</v>
+      <c r="C34" s="148" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="D34" s="149" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E34" s="150" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F34" s="104" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="G34" s="151" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="I34" s="118" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="J34" s="152" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="K34" s="21" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="L34" s="118" t="n">
+        <v>0.459</v>
       </c>
     </row>
     <row r="35">
@@ -2724,35 +2796,35 @@
       <c r="B35" s="2" t="n">
         <v>0.764</v>
       </c>
-      <c r="C35" s="146" t="n">
-        <v>0.2124</v>
-      </c>
-      <c r="D35" s="72" t="n">
-        <v>0.1882</v>
-      </c>
-      <c r="E35" s="3" t="n">
-        <v>0.1775</v>
-      </c>
-      <c r="F35" s="8" t="n">
-        <v>0.2222</v>
-      </c>
-      <c r="G35" s="8" t="n">
-        <v>0.2224</v>
-      </c>
-      <c r="H35" s="105" t="n">
-        <v>0.2098</v>
-      </c>
-      <c r="I35" s="104" t="n">
-        <v>0.5534</v>
-      </c>
-      <c r="J35" s="103" t="n">
-        <v>0.5693</v>
-      </c>
-      <c r="K35" s="129" t="n">
-        <v>0.5858</v>
-      </c>
-      <c r="L35" s="147" t="n">
-        <v>0.5499000000000001</v>
+      <c r="C35" s="153" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="D35" s="154" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="E35" s="155" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="F35" s="127" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="G35" s="156" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I35" s="157" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="J35" s="153" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="K35" s="31" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="L35" s="158" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="36">
@@ -2764,34 +2836,34 @@
       <c r="B36" s="2" t="n">
         <v>0.764</v>
       </c>
-      <c r="C36" s="78" t="n">
-        <v>0.2251</v>
-      </c>
-      <c r="D36" s="78" t="n">
-        <v>0.2252</v>
-      </c>
-      <c r="E36" s="3" t="n">
-        <v>0.2114</v>
-      </c>
-      <c r="F36" s="74" t="n">
-        <v>0.2386</v>
-      </c>
-      <c r="G36" s="74" t="n">
-        <v>0.2391</v>
-      </c>
-      <c r="H36" s="78" t="n">
-        <v>0.2248</v>
-      </c>
-      <c r="I36" s="148" t="n">
-        <v>0.6567</v>
-      </c>
-      <c r="J36" s="149" t="n">
-        <v>0.6819</v>
-      </c>
-      <c r="K36" s="38" t="n">
-        <v>0.6852</v>
-      </c>
-      <c r="L36" s="150" t="n">
+      <c r="C36" s="55" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="D36" s="159" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="E36" s="160" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="F36" s="46" t="n">
+        <v>0.726</v>
+      </c>
+      <c r="G36" s="58" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I36" s="50" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="J36" s="161" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="K36" s="162" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="L36" s="96" t="n">
         <v>0.5499000000000001</v>
       </c>
     </row>
